--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5B891-80BE-4A68-8E9C-00E20CDD1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A45521-6A24-4B67-A374-4239D89AFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="1" r:id="rId1"/>
@@ -2815,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C782BC8-25C1-4965-8240-28B07E75BEE2}">
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3731,7 +3731,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>

--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A45521-6A24-4B67-A374-4239D89AFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB4D7E-D90D-4254-8DF7-518B2F23DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="2" shapeId="0" xr:uid="{CCADDBA0-1578-40C4-9874-5615EAB41CBB}">
+    <comment ref="O13" authorId="2" shapeId="0" xr:uid="{CCADDBA0-1578-40C4-9874-5615EAB41CBB}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{A8467846-DB22-4BAE-9AFE-436070B97426}">
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{A8467846-DB22-4BAE-9AFE-436070B97426}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="2" shapeId="0" xr:uid="{AC6AEBBF-DD89-4029-ACD3-BD5ED88538D7}">
+    <comment ref="Q13" authorId="2" shapeId="0" xr:uid="{AC6AEBBF-DD89-4029-ACD3-BD5ED88538D7}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="2" shapeId="0" xr:uid="{023CE23E-B593-4D00-AB9E-A621E942235B}">
+    <comment ref="I14" authorId="2" shapeId="0" xr:uid="{023CE23E-B593-4D00-AB9E-A621E942235B}">
       <text>
         <r>
           <rPr>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Sector Name</t>
   </si>
@@ -1774,9 +1774,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>MINWINOFF</t>
-  </si>
-  <si>
     <t>PJ</t>
   </si>
   <si>
@@ -1801,9 +1798,6 @@
     <t>*Used to be 15000</t>
   </si>
   <si>
-    <t>*ACT_BND</t>
-  </si>
-  <si>
     <t>CURR</t>
   </si>
   <si>
@@ -1829,6 +1823,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Depths</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2028,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -2096,6 +2096,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20 % - Farve5" xfId="3" builtinId="46"/>
@@ -2123,16 +2126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9465</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2752665</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2147,8 +2150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="3781425"/>
-          <a:ext cx="4918650" cy="1087755"/>
+          <a:off x="5400675" y="4543425"/>
+          <a:ext cx="5299650" cy="1087755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,7 +2833,7 @@
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
     <col min="12" max="12" width="40.5546875" customWidth="1"/>
     <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -2839,7 +2842,7 @@
     <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2856,10 +2859,12 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="str">
@@ -2875,7 +2880,9 @@
         <v>PJ</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="4" t="s">
         <v>5</v>
@@ -2889,8 +2896,9 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="str">
         <f>[1]EB1!P2</f>
         <v>HYD</v>
@@ -2903,6 +2911,10 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>25</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6" t="s">
         <v>6</v>
@@ -2931,10 +2943,13 @@
       <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2945,6 +2960,10 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>35</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="9" t="s">
         <v>17</v>
@@ -2974,8 +2993,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2986,13 +3006,17 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>45</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="5" t="str">
-        <f t="shared" ref="K5:L7" si="0">C4</f>
+        <f t="shared" ref="K5:L5" si="0">C4</f>
         <v>WINON</v>
       </c>
       <c r="L5" s="5" t="str">
@@ -3008,8 +3032,9 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="str">
         <f>[1]EB1!R2</f>
         <v>SOL</v>
@@ -3022,19 +3047,21 @@
         <f>[1]EB1!$Z$2</f>
         <v>PJ</v>
       </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>WINOFF</v>
+        <f>$C$5&amp;G2</f>
+        <v>WINOFF15</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
-        <v>Offshore wind</v>
+        <f>$D$5&amp;G2</f>
+        <v>Offshore wind15</v>
       </c>
       <c r="M6" s="5" t="str">
-        <f t="shared" ref="M6:M7" si="1">$E$2</f>
+        <f t="shared" ref="M6:M10" si="1">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="N6" s="5"/>
@@ -3042,20 +3069,20 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>SOL</v>
-      </c>
-      <c r="L7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Solar energy</v>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K9" si="2">$C$5&amp;G3</f>
+        <v>WINOFF25</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L9" si="3">$D$5&amp;G3</f>
+        <v>Offshore wind25</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3066,42 +3093,67 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>WINOFF35</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v>Offshore wind35</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PJ</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>WINOFF45</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v>Offshore wind45</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PJ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="12"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K10" s="5" t="str">
+        <f>C6</f>
+        <v>SOL</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>D6</f>
+        <v>Solar energy</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PJ</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>30</v>
@@ -3113,44 +3165,17 @@
         <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
         <v>41</v>
@@ -3161,9 +3186,7 @@
       <c r="D12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
         <v>44</v>
       </c>
@@ -3171,45 +3194,26 @@
         <v>45</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="17" t="str">
-        <f>$F$2&amp;"/"&amp;$E$2</f>
-        <v>/PJ</v>
-      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="17" t="str">
         <f>$F$2&amp;"/"&amp;$E$2</f>
         <v>/PJ</v>
@@ -3219,22 +3223,38 @@
         <v>PJ</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="str">
-        <f>K14</f>
+        <f>K16</f>
         <v>MINWINON</v>
       </c>
       <c r="C14" s="8"/>
@@ -3248,87 +3268,91 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="str">
-        <f>$I$14&amp;C4</f>
+      <c r="I14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" t="str">
+        <f>K17</f>
+        <v>MINWINOFF15</v>
+      </c>
+      <c r="D15" t="str">
+        <f>K6</f>
+        <v>WINOFF15</v>
+      </c>
+      <c r="E15" s="31">
+        <v>2021</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="str">
+        <f t="shared" ref="B16:B18" si="4">K18</f>
+        <v>MINWINOFF25</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16:D18" si="5">K7</f>
+        <v>WINOFF25</v>
+      </c>
+      <c r="E16" s="31">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="str">
+        <f>$I$16&amp;C4</f>
         <v>MINWINON</v>
       </c>
-      <c r="L14" s="20" t="str">
+      <c r="L16" s="20" t="str">
         <f>"Domestic Supply of "&amp;D4</f>
         <v>Domestic Supply of Onshore wind</v>
-      </c>
-      <c r="M14" s="10" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="N14" s="10" t="str">
-        <f>$E$2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="str">
-        <f>K15</f>
-        <v>MINWINOFF</v>
-      </c>
-      <c r="D15" t="str">
-        <f>K6</f>
-        <v>WINOFF</v>
-      </c>
-      <c r="E15" s="31">
-        <v>2021</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" t="str">
-        <f>"Domestic Supply of "&amp;D5</f>
-        <v>Domestic Supply of Offshore wind</v>
-      </c>
-      <c r="M15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="str">
-        <f>K16</f>
-        <v>MINSOL1</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="str">
-        <f>K7</f>
-        <v>SOL</v>
-      </c>
-      <c r="E16" s="32">
-        <v>2021</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="str">
-        <f>$I$14&amp;C6&amp;1</f>
-        <v>MINSOL1</v>
-      </c>
-      <c r="L16" s="20" t="str">
-        <f>"Domestic Supply of "&amp;D6</f>
-        <v>Domestic Supply of Solar energy</v>
       </c>
       <c r="M16" s="10" t="str">
         <f>$E$2</f>
@@ -3344,43 +3368,152 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
+      <c r="B17" t="str">
+        <f t="shared" si="4"/>
+        <v>MINWINOFF35</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="5"/>
+        <v>WINOFF35</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
+      <c r="K17" t="str">
+        <f>$I$16&amp;K6</f>
+        <v>MINWINOFF15</v>
+      </c>
+      <c r="L17" t="str">
+        <f>"Domestic Supply of "&amp;$D$5&amp;" "&amp;G2</f>
+        <v>Domestic Supply of Offshore wind 15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
+      <c r="B18" t="str">
+        <f t="shared" si="4"/>
+        <v>MINWINOFF45</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>WINOFF45</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2021</v>
+      </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>6</v>
+      </c>
       <c r="H18" s="1"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" t="str">
+        <f t="shared" ref="K18:K19" si="6">$I$16&amp;K7</f>
+        <v>MINWINOFF25</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L20" si="7">"Domestic Supply of "&amp;$D$5&amp;" "&amp;G3</f>
+        <v>Domestic Supply of Offshore wind 25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="8" t="str">
+        <f>K21</f>
+        <v>MINSOL1</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="str">
+        <f>K10</f>
+        <v>SOL</v>
+      </c>
+      <c r="E19" s="32">
+        <v>2021</v>
+      </c>
       <c r="H19" s="1"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" t="str">
+        <f t="shared" si="6"/>
+        <v>MINWINOFF35</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="7"/>
+        <v>Domestic Supply of Offshore wind 35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="H20" s="1"/>
+      <c r="K20" t="str">
+        <f>$I$16&amp;K9</f>
+        <v>MINWINOFF45</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="7"/>
+        <v>Domestic Supply of Offshore wind 45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="H21" s="1"/>
+      <c r="K21" s="10" t="str">
+        <f>$I$16&amp;C6&amp;1</f>
+        <v>MINSOL1</v>
+      </c>
+      <c r="L21" s="20" t="str">
+        <f>"Domestic Supply of "&amp;D6</f>
+        <v>Domestic Supply of Solar energy</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -3388,10 +3521,14 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="8"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3550,7 @@
   <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3469,7 +3606,7 @@
         <v>PJ</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
@@ -3485,7 +3622,7 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L3" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>7</v>
@@ -3595,19 +3732,19 @@
         <v>32</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>34</v>
@@ -3649,7 +3786,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -3728,7 +3865,7 @@
         <v>GAS</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8">
         <v>2022</v>
@@ -3737,13 +3874,13 @@
         <v>100</v>
       </c>
       <c r="I11" s="33">
-        <v>4</v>
+        <v>1.94</v>
       </c>
       <c r="J11" s="8">
         <v>1000</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10" t="str">
@@ -3764,13 +3901,13 @@
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L12" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -3793,7 +3930,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3940,13 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
@@ -3910,7 +4047,7 @@
         <v>5316.6916000000001</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="10" t="str">
@@ -3947,7 +4084,7 @@
         <v>1006.5324000000001</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="10" t="str">

--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB4D7E-D90D-4254-8DF7-518B2F23DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F6F71-4B67-4DED-93C2-4D1F471A8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Sector Name</t>
   </si>
@@ -1828,7 +1828,31 @@
     <t>D</t>
   </si>
   <si>
-    <t>Depths</t>
+    <t>MINWINOFF45</t>
+  </si>
+  <si>
+    <t>WINOFF45</t>
+  </si>
+  <si>
+    <t>MINWINOFF8</t>
+  </si>
+  <si>
+    <t>WINOFF8</t>
+  </si>
+  <si>
+    <t>MINWINOFF20</t>
+  </si>
+  <si>
+    <t>WINOFF20</t>
+  </si>
+  <si>
+    <t>MINWINOFF30</t>
+  </si>
+  <si>
+    <t>WINOFF30</t>
+  </si>
+  <si>
+    <t>WTG size</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2052,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -2076,7 +2100,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2087,9 +2110,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2816,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2881,7 +2901,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="4" t="s">
@@ -2913,7 +2933,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6" t="s">
@@ -2943,7 +2963,7 @@
       <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="33" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2962,7 +2982,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="9" t="s">
@@ -3052,13 +3072,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
-      <c r="K6" t="str">
-        <f>$C$5&amp;G2</f>
-        <v>WINOFF15</v>
+      <c r="K6" t="s">
+        <v>77</v>
       </c>
       <c r="L6" t="str">
         <f>$D$5&amp;G2</f>
-        <v>Offshore wind15</v>
+        <v>Offshore wind8</v>
       </c>
       <c r="M6" s="5" t="str">
         <f t="shared" ref="M6:M10" si="1">$E$2</f>
@@ -3076,13 +3095,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:K9" si="2">$C$5&amp;G3</f>
-        <v>WINOFF25</v>
+      <c r="K7" t="s">
+        <v>79</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L9" si="3">$D$5&amp;G3</f>
-        <v>Offshore wind25</v>
+        <f t="shared" ref="L7:L9" si="2">$D$5&amp;G3</f>
+        <v>Offshore wind20</v>
       </c>
       <c r="M7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3100,13 +3118,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
-      <c r="K8" t="str">
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>WINOFF35</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="3"/>
-        <v>Offshore wind35</v>
+        <v>Offshore wind30</v>
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3120,13 +3137,13 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="K9" t="str">
-        <f t="shared" si="2"/>
-        <v>WINOFF45</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="3"/>
-        <v>Offshore wind45</v>
+      <c r="K9" s="5" t="str">
+        <f>C6</f>
+        <v>SOL</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>D6</f>
+        <v>Solar energy</v>
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3140,18 +3157,6 @@
       </c>
       <c r="E10" s="12"/>
       <c r="H10" s="1"/>
-      <c r="K10" s="5" t="str">
-        <f>C6</f>
-        <v>SOL</v>
-      </c>
-      <c r="L10" s="5" t="str">
-        <f>D6</f>
-        <v>Solar energy</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>PJ</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -3262,7 +3267,7 @@
         <f>K5</f>
         <v>WINON</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>2021</v>
       </c>
       <c r="F14" s="19"/>
@@ -3298,19 +3303,17 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" t="str">
-        <f>K17</f>
-        <v>MINWINOFF15</v>
-      </c>
-      <c r="D15" t="str">
-        <f>K6</f>
-        <v>WINOFF15</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
         <v>2021</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="9" t="s">
@@ -3327,19 +3330,14 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" t="str">
-        <f t="shared" ref="B16:B18" si="4">K18</f>
-        <v>MINWINOFF25</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:D18" si="5">K7</f>
-        <v>WINOFF25</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16">
         <v>2021</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5" t="s">
@@ -3368,30 +3366,26 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" t="str">
-        <f t="shared" si="4"/>
-        <v>MINWINOFF35</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="5"/>
-        <v>WINOFF35</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="B17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
         <v>2021</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" t="str">
         <f>$I$16&amp;K6</f>
-        <v>MINWINOFF15</v>
+        <v>MINWINOFF8</v>
       </c>
       <c r="L17" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "&amp;G2</f>
-        <v>Domestic Supply of Offshore wind 15</v>
+        <v>Domestic Supply of Offshore wind 8</v>
       </c>
       <c r="M17" t="s">
         <v>56</v>
@@ -3405,32 +3399,28 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" t="str">
-        <f t="shared" si="4"/>
-        <v>MINWINOFF45</v>
+      <c r="B18" s="8" t="str">
+        <f>K20</f>
+        <v>MINSOL1</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" t="str">
-        <f t="shared" si="5"/>
-        <v>WINOFF45</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="D18" s="8" t="str">
+        <f>K9</f>
+        <v>SOL</v>
+      </c>
+      <c r="E18" s="30">
         <v>2021</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21">
-        <v>6</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" t="str">
-        <f t="shared" ref="K18:K19" si="6">$I$16&amp;K7</f>
-        <v>MINWINOFF25</v>
+        <f t="shared" ref="K18:K19" si="3">$I$16&amp;K7</f>
+        <v>MINWINOFF20</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L20" si="7">"Domestic Supply of "&amp;$D$5&amp;" "&amp;G3</f>
-        <v>Domestic Supply of Offshore wind 25</v>
+        <f t="shared" ref="L18:L20" si="4">"Domestic Supply of "&amp;$D$5&amp;" "&amp;G3</f>
+        <v>Domestic Supply of Offshore wind 20</v>
       </c>
       <c r="M18" t="s">
         <v>56</v>
@@ -3444,28 +3434,16 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="str">
-        <f>K21</f>
-        <v>MINSOL1</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="str">
-        <f>K10</f>
-        <v>SOL</v>
-      </c>
-      <c r="E19" s="32">
-        <v>2021</v>
-      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
-        <v>MINWINOFF35</v>
+        <f t="shared" si="3"/>
+        <v>MINWINOFF30</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="7"/>
-        <v>Domestic Supply of Offshore wind 35</v>
+        <f t="shared" si="4"/>
+        <v>Domestic Supply of Offshore wind 30</v>
       </c>
       <c r="M19" t="s">
         <v>56</v>
@@ -3480,40 +3458,26 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="K20" t="str">
-        <f>$I$16&amp;K9</f>
-        <v>MINWINOFF45</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="7"/>
-        <v>Domestic Supply of Offshore wind 45</v>
-      </c>
-      <c r="M20" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" t="s">
-        <v>57</v>
+      <c r="K20" s="10" t="str">
+        <f>$I$16&amp;C6&amp;1</f>
+        <v>MINSOL1</v>
+      </c>
+      <c r="L20" s="20" t="str">
+        <f>"Domestic Supply of "&amp;D6</f>
+        <v>Domestic Supply of Solar energy</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="K21" s="10" t="str">
-        <f>$I$16&amp;C6&amp;1</f>
-        <v>MINSOL1</v>
-      </c>
-      <c r="L21" s="20" t="str">
-        <f>"Domestic Supply of "&amp;D6</f>
-        <v>Domestic Supply of Solar energy</v>
-      </c>
-      <c r="M21" s="10" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="N21" s="10" t="str">
-        <f>$E$2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -3521,14 +3485,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="8"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="8"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,6 +3497,52 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33">
+        <v>2021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3550,7 +3556,7 @@
   <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3873,8 +3879,8 @@
       <c r="H11" s="8">
         <v>100</v>
       </c>
-      <c r="I11" s="33">
-        <v>1.94</v>
+      <c r="I11" s="31">
+        <v>3</v>
       </c>
       <c r="J11" s="8">
         <v>1000</v>
@@ -3906,7 +3912,7 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="32" t="s">
         <v>72</v>
       </c>
       <c r="R12" s="10"/>
@@ -3935,17 +3941,17 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3962,13 +3968,13 @@
         <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>20000</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <f>[1]EB1!$E$5*[1]EB1!E22</f>
         <v>1579.8994000000002</v>
       </c>
@@ -4001,13 +4007,13 @@
         <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>0</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>5.4</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>0</v>
       </c>
       <c r="L31" s="10"/>
@@ -4039,10 +4045,10 @@
         <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>4.5</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <f>[1]EB1!E6</f>
         <v>5316.6916000000001</v>
       </c>
@@ -4076,10 +4082,10 @@
         <f>$N$5</f>
         <v>GAS</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>4.5</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <f>-[1]EB1!E7</f>
         <v>1006.5324000000001</v>
       </c>

--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F6F71-4B67-4DED-93C2-4D1F471A8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C4D13-EF7F-492F-B5F4-28D1B89E6507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="1" r:id="rId1"/>
@@ -2052,7 +2052,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -2110,9 +2110,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2838,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,7 +2960,7 @@
       <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3080,7 +3077,7 @@
         <v>Offshore wind8</v>
       </c>
       <c r="M6" s="5" t="str">
-        <f t="shared" ref="M6:M10" si="1">$E$2</f>
+        <f t="shared" ref="M6:M9" si="1">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="N6" s="5"/>
@@ -3099,7 +3096,7 @@
         <v>79</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L9" si="2">$D$5&amp;G3</f>
+        <f t="shared" ref="L7:L8" si="2">$D$5&amp;G3</f>
         <v>Offshore wind20</v>
       </c>
       <c r="M7" s="5" t="str">
@@ -3309,7 +3306,7 @@
       <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="29">
         <v>2021</v>
       </c>
       <c r="G15">
@@ -3336,7 +3333,7 @@
       <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="29">
         <v>2021</v>
       </c>
       <c r="H16" s="1"/>
@@ -3373,7 +3370,7 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="29">
         <v>2021</v>
       </c>
       <c r="H17" s="1"/>
@@ -3408,7 +3405,7 @@
         <f>K9</f>
         <v>SOL</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>2021</v>
       </c>
       <c r="H18" s="1"/>
@@ -3419,7 +3416,7 @@
         <v>MINWINOFF20</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L20" si="4">"Domestic Supply of "&amp;$D$5&amp;" "&amp;G3</f>
+        <f t="shared" ref="L18:L19" si="4">"Domestic Supply of "&amp;$D$5&amp;" "&amp;G3</f>
         <v>Domestic Supply of Offshore wind 20</v>
       </c>
       <c r="M18" t="s">
@@ -3555,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C782BC8-25C1-4965-8240-28B07E75BEE2}">
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3879,7 +3876,7 @@
       <c r="H11" s="8">
         <v>100</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>3</v>
       </c>
       <c r="J11" s="8">
@@ -3912,7 +3909,7 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
         <v>72</v>
       </c>
       <c r="R12" s="10"/>

--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C4D13-EF7F-492F-B5F4-28D1B89E6507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504C302-021A-4D16-A55D-86686DE4BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2835,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3309,8 +3309,8 @@
       <c r="E15" s="29">
         <v>2021</v>
       </c>
-      <c r="G15">
-        <v>2.5</v>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="9" t="s">

--- a/VT_REG1_PRI_K04.xlsx
+++ b/VT_REG1_PRI_K04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504C302-021A-4D16-A55D-86686DE4BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF719E-7F01-4F4E-A14A-AC3C1593B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Sector Name</t>
   </si>
@@ -1795,9 +1795,6 @@
     <t>MIN</t>
   </si>
   <si>
-    <t>*Used to be 15000</t>
-  </si>
-  <si>
     <t>CURR</t>
   </si>
   <si>
@@ -1828,12 +1825,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>MINWINOFF45</t>
-  </si>
-  <si>
-    <t>WINOFF45</t>
-  </si>
-  <si>
     <t>MINWINOFF8</t>
   </si>
   <si>
@@ -1853,6 +1844,9 @@
   </si>
   <si>
     <t>WTG size</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1856,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +1942,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2052,7 +2054,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -2116,6 +2118,7 @@
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20 % - Farve5" xfId="3" builtinId="46"/>
@@ -2204,6 +2207,42 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Every separate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> offshore technology has it's own MINED supply. Solar is all on the same at the moment.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
@@ -2390,7 +2429,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> if you add more than one MINGAS process, you can buy the cheaper version first and then have to go to the next ones after. You can also </a:t>
+            <a:t> if you add more than one MINGAS process, you can buy the cheaper version first and then have to go to the next ones after. You can also add</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
@@ -2402,7 +2441,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>with and import and export option. I have stuck to just 1 option</a:t>
+            <a:t> import and export option. I have stuck to just 1 option</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
@@ -2414,7 +2453,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> for Gas with plenty of supply, it was 15000 first. Check Demo10 if unsure. </a:t>
+            <a:t> for Gas with an annual production bound way above the model I am using, it was 15000 first. Check Demo10 if unsure. </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -2835,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2877,7 +2916,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2961,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3070,7 +3109,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L6" t="str">
         <f>$D$5&amp;G2</f>
@@ -3093,7 +3132,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" ref="L7:L8" si="2">$D$5&amp;G3</f>
@@ -3116,7 +3155,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="2"/>
@@ -3167,13 +3206,13 @@
         <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -3301,10 +3340,10 @@
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="29">
         <v>2021</v>
@@ -3328,10 +3367,10 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="29">
         <v>2021</v>
@@ -3364,11 +3403,11 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="29">
         <v>2021</v>
@@ -3495,51 +3534,13 @@
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I30" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31">
-        <v>2021</v>
-      </c>
-    </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I32" s="21" t="s">
-        <v>80</v>
-      </c>
+      <c r="I32" s="21"/>
       <c r="J32" s="8"/>
-      <c r="K32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I33" s="22" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="22"/>
       <c r="J33" s="8"/>
-      <c r="K33" t="s">
-        <v>75</v>
-      </c>
-      <c r="L33">
-        <v>2021</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3553,7 +3554,7 @@
   <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3609,7 +3610,7 @@
         <v>PJ</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
@@ -3625,7 +3626,7 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>7</v>
@@ -3735,19 +3736,19 @@
         <v>32</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>34</v>
@@ -3789,7 +3790,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -3868,7 +3869,7 @@
         <v>GAS</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="8">
         <v>2022</v>
@@ -3904,13 +3905,13 @@
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L12" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -3931,11 +3932,6 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="F17" s="26"/>
@@ -3954,6 +3950,11 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K24" s="8"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="33" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="str">
